--- a/results/11-2022/contributions-comparison-11-2022.xlsx
+++ b/results/11-2022/contributions-comparison-11-2022.xlsx
@@ -578,7 +578,7 @@
         <v>0.0178</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0103</v>
+        <v>0.0105</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -774,7 +774,7 @@
         <v>-0.0364</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0354</v>
+        <v>-0.0353</v>
       </c>
       <c r="L7" t="n">
         <v>-0.0006</v>
@@ -792,10 +792,10 @@
         <v>-0.0179</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0688</v>
+        <v>-0.0687</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0299</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="8">
@@ -824,7 +824,7 @@
         <v>0.4364</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1775</v>
+        <v>-0.209</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -853,28 +853,28 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>-0.2144</v>
+        <v>-0.2157</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3583</v>
+        <v>-0.3578</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0643</v>
+        <v>-0.0642</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1672</v>
+        <v>-0.167</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1254</v>
+        <v>-0.1253</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.317</v>
+        <v>-0.3165</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4448</v>
+        <v>-0.4442</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0862</v>
+        <v>-0.0861</v>
       </c>
       <c r="R9" t="n">
         <v>-0.0267</v>
@@ -935,31 +935,31 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>-0.056</v>
+        <v>-0.0559</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0825</v>
+        <v>-0.0824</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0887</v>
+        <v>-0.0885</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0732</v>
+        <v>-0.073</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0698</v>
+        <v>-0.0696</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0597</v>
+        <v>-0.0596</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0463</v>
+        <v>-0.0462</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0501</v>
+        <v>-0.05</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.031</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="12">
@@ -988,7 +988,7 @@
         <v>-0.0774</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0866</v>
+        <v>-0.0876</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
@@ -1017,31 +1017,31 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="n">
-        <v>-0.0211</v>
+        <v>-0.0555</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.013</v>
+        <v>-0.0641</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1531</v>
+        <v>0.0852</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0628</v>
+        <v>-0.015</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0259</v>
+        <v>-0.0175</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0193</v>
+        <v>-0.0442</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0646</v>
+        <v>-0.071</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0279</v>
+        <v>0.0343</v>
       </c>
       <c r="R13" t="n">
-        <v>0.026</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="14">
@@ -1067,10 +1067,10 @@
         <v>-0.8936</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.0433</v>
+        <v>-1.0124</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6023</v>
+        <v>-0.5705</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -1099,31 +1099,31 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="n">
-        <v>-0.4212</v>
+        <v>-0.5093</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2388</v>
+        <v>-0.2523</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1371</v>
+        <v>-0.0993</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0856</v>
+        <v>-0.0847</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0115</v>
+        <v>0.0123</v>
       </c>
       <c r="O15" t="n">
-        <v>0.311</v>
+        <v>0.3113</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3188</v>
+        <v>0.3053</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3419</v>
+        <v>0.3277</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3214</v>
+        <v>0.3556</v>
       </c>
     </row>
     <row r="16">
@@ -1181,7 +1181,7 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="n">
-        <v>-0.102</v>
+        <v>-0.1018</v>
       </c>
       <c r="K17" t="n">
         <v>-0.0592</v>
@@ -1190,7 +1190,7 @@
         <v>-0.0387</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0119</v>
+        <v>-0.0118</v>
       </c>
       <c r="N17" t="n">
         <v>-0.0177</v>
@@ -1199,7 +1199,7 @@
         <v>-0.0394</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0344</v>
+        <v>-0.0343</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.0284</v>
@@ -1234,7 +1234,7 @@
         <v>0.0854</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0494</v>
+        <v>0.0493</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -1263,28 +1263,28 @@
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19" t="n">
+        <v>-0.0925</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.0805</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.0938</v>
+      </c>
+      <c r="M19" t="n">
         <v>-0.0926</v>
       </c>
-      <c r="K19" t="n">
-        <v>-0.0806</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-0.0939</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-0.0927</v>
-      </c>
       <c r="N19" t="n">
-        <v>-0.0817</v>
+        <v>-0.0816</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0523</v>
+        <v>-0.0522</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0498</v>
+        <v>-0.0497</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0417</v>
+        <v>-0.0416</v>
       </c>
       <c r="R19" t="n">
         <v>-0.0161</v>
@@ -1316,7 +1316,7 @@
         <v>0.0147</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0119</v>
+        <v>0.0126</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -1398,7 +1398,7 @@
         <v>-0.2423</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8426</v>
+        <v>-0.8439</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -1427,31 +1427,31 @@
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>-0.5797</v>
+        <v>-0.5801</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1282</v>
+        <v>-0.1292</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0023</v>
+        <v>-0.0035</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0542</v>
+        <v>0.0541</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0456</v>
+        <v>-0.0455</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0606</v>
+        <v>-0.0605</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0583</v>
+        <v>-0.0582</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0561</v>
+        <v>-0.056</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0355</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="24">
@@ -1512,28 +1512,28 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0438</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0309</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0306</v>
+        <v>0.0436</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0151</v>
+        <v>0.0308</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0244</v>
+        <v>0.0399</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0214</v>
+        <v>0.0217</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0212</v>
+        <v>0.0215</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0177</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="26">
@@ -1591,31 +1591,31 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="n">
-        <v>-0.0737</v>
+        <v>-0.0736</v>
       </c>
       <c r="K27" t="n">
         <v>-0.0584</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.5243</v>
+        <v>-0.5236</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.5727</v>
+        <v>-0.572</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.2224</v>
+        <v>-0.2221</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1761</v>
+        <v>-0.1759</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.3212</v>
+        <v>-0.3208</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2404</v>
+        <v>-0.2401</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1032</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="28">
@@ -1673,16 +1673,16 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>-0.3981</v>
+        <v>-0.3976</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.3924</v>
+        <v>-0.3919</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2853</v>
+        <v>-0.2849</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.1299</v>
+        <v>-0.1297</v>
       </c>
       <c r="N29" t="n">
         <v>-0.0073</v>
@@ -1723,10 +1723,10 @@
         <v>-3.8432</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.8615</v>
+        <v>-4.8306</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.8257</v>
+        <v>-2.7044</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -1755,31 +1755,31 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="n">
-        <v>-1.7191</v>
+        <v>-2.1235</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.6566</v>
+        <v>-1.8267</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.3675</v>
+        <v>-2.5229</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8461</v>
+        <v>-1.057</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.4488</v>
+        <v>-0.4964</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1725</v>
+        <v>-0.1963</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.3706</v>
+        <v>-0.399</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.3733</v>
+        <v>-0.3514</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0383</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="32">
@@ -1808,7 +1808,7 @@
         <v>25248.5</v>
       </c>
       <c r="I32" t="n">
-        <v>25663.3</v>
+        <v>25699</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
@@ -1837,31 +1837,31 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>26052.6724</v>
+        <v>26088.914</v>
       </c>
       <c r="K33" t="n">
-        <v>26377.7559</v>
+        <v>26414.4498</v>
       </c>
       <c r="L33" t="n">
-        <v>26689.6986</v>
+        <v>26726.8264</v>
       </c>
       <c r="M33" t="n">
-        <v>26975.3596</v>
+        <v>27012.8848</v>
       </c>
       <c r="N33" t="n">
-        <v>27223.1145</v>
+        <v>27260.9843</v>
       </c>
       <c r="O33" t="n">
-        <v>27468.2412</v>
+        <v>27506.452</v>
       </c>
       <c r="P33" t="n">
-        <v>27708.0105</v>
+        <v>27746.5549</v>
       </c>
       <c r="Q33" t="n">
-        <v>27946.0614</v>
+        <v>27984.9369</v>
       </c>
       <c r="R33" t="n">
-        <v>28195.2314</v>
+        <v>28234.4535</v>
       </c>
     </row>
     <row r="34">
@@ -1890,7 +1890,7 @@
         <v>0.7884</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2886</v>
+        <v>-0.3036</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -1919,25 +1919,25 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>-0.2541</v>
+        <v>-0.2538</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.35</v>
+        <v>-0.3495</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0363</v>
+        <v>-0.0362</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.1138</v>
+        <v>-0.1137</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.063</v>
+        <v>-0.0629</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.2597</v>
+        <v>-0.2593</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.377</v>
+        <v>-0.3764</v>
       </c>
       <c r="Q35" t="n">
         <v>-0.0192</v>
@@ -2089,7 +2089,7 @@
         <v>-0.0212</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.0431</v>
+        <v>-1.0416</v>
       </c>
       <c r="M39" t="n">
         <v>-0.0002</v>
@@ -2165,16 +2165,16 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" t="n">
-        <v>-0.0201</v>
+        <v>-0.02</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.5189</v>
+        <v>-0.5182</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.2515</v>
+        <v>-0.2512</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0333</v>
+        <v>-0.0332</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>-1.0621</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2664</v>
+        <v>0.4046</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -2247,13 +2247,13 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" t="n">
-        <v>0.4044</v>
+        <v>0.2096</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2829</v>
+        <v>0.2825</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0654</v>
+        <v>-0.0653</v>
       </c>
       <c r="M43" t="n">
         <v>-0.0095</v>
@@ -2262,16 +2262,16 @@
         <v>-0.0667</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1215</v>
+        <v>0.1213</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2425</v>
+        <v>0.2421</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.1077</v>
+        <v>-0.1075</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1261</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="44">
@@ -2382,7 +2382,7 @@
         <v>-0.126</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0957</v>
+        <v>-0.1294</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -2411,31 +2411,31 @@
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="n">
-        <v>-0.051</v>
+        <v>-0.0611</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0381</v>
+        <v>0.0228</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0431</v>
+        <v>-0.0635</v>
       </c>
       <c r="M47" t="n">
-        <v>0.132</v>
+        <v>0.1324</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1348</v>
+        <v>0.114</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1137</v>
+        <v>0.0989</v>
       </c>
       <c r="P47" t="n">
-        <v>0.093</v>
+        <v>0.0842</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0638</v>
+        <v>-0.0612</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.0511</v>
+        <v>-0.0491</v>
       </c>
     </row>
     <row r="48">
@@ -2464,7 +2464,7 @@
         <v>-0.0547</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0836</v>
+        <v>0.0247</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -2493,28 +2493,28 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="n">
-        <v>-0.0364</v>
+        <v>-0.0349</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0564</v>
+        <v>-0.0263</v>
       </c>
       <c r="L49" t="n">
-        <v>0.042</v>
+        <v>0.0427</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0189</v>
+        <v>-0.0181</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0116</v>
+        <v>-0.0109</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.0269</v>
+        <v>-0.0262</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.0453</v>
+        <v>-0.0178</v>
       </c>
       <c r="R49" t="n">
         <v>0.0032</v>
@@ -2546,7 +2546,7 @@
         <v>0.0355</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0055</v>
+        <v>0.0071</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -2628,7 +2628,7 @@
         <v>173.2</v>
       </c>
       <c r="I52" t="n">
-        <v>174.9</v>
+        <v>196.8</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -2657,31 +2657,31 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="n">
-        <v>199.8518</v>
+        <v>177.8518</v>
       </c>
       <c r="K53" t="n">
-        <v>202.9509</v>
+        <v>180.6098</v>
       </c>
       <c r="L53" t="n">
-        <v>206.0981</v>
+        <v>183.4105</v>
       </c>
       <c r="M53" t="n">
-        <v>209.2941</v>
+        <v>186.2547</v>
       </c>
       <c r="N53" t="n">
-        <v>212.5396</v>
+        <v>189.1429</v>
       </c>
       <c r="O53" t="n">
-        <v>215.8355</v>
+        <v>192.076</v>
       </c>
       <c r="P53" t="n">
-        <v>219.1825</v>
+        <v>195.0545</v>
       </c>
       <c r="Q53" t="n">
-        <v>222.5814</v>
+        <v>198.0793</v>
       </c>
       <c r="R53" t="n">
-        <v>226.033</v>
+        <v>201.1509</v>
       </c>
     </row>
     <row r="54">
@@ -2792,7 +2792,7 @@
         <v>-0.2215</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.1068</v>
+        <v>-0.1071</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -2821,16 +2821,16 @@
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57" t="n">
-        <v>-0.0526</v>
+        <v>-0.0525</v>
       </c>
       <c r="K57" t="n">
         <v>-0.0403</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0274</v>
+        <v>-0.0273</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0163</v>
+        <v>-0.0162</v>
       </c>
       <c r="N57" t="n">
         <v>-0.007</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>-0.0315</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -3149,28 +3149,28 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>0.0016</v>
+        <v>0.0003</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -3231,28 +3231,28 @@
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67" t="n">
-        <v>-0.0104</v>
+        <v>-0.0103</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0082</v>
+        <v>0.0084</v>
       </c>
       <c r="L67" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="Q67" t="n">
         <v>0.0083</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.0084</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.0084</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0.0082</v>
       </c>
       <c r="R67" t="n">
         <v>0.0081</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -3313,31 +3313,31 @@
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69" t="n">
-        <v>-0.0046</v>
+        <v>-0.039</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.0093</v>
+        <v>-0.0604</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.014</v>
+        <v>-0.082</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.0158</v>
+        <v>-0.0936</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.0112</v>
+        <v>-0.0546</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0065</v>
+        <v>-0.0313</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0018</v>
+        <v>-0.0082</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0001</v>
+        <v>0.0065</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="70">
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.0318</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -3395,31 +3395,31 @@
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71" t="n">
-        <v>0.0302</v>
+        <v>-0.0579</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0295</v>
+        <v>0.0161</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0143</v>
+        <v>0.052</v>
       </c>
       <c r="M71" t="n">
-        <v>0.014</v>
+        <v>0.0149</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0137</v>
+        <v>0.0145</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0134</v>
+        <v>0.0138</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0132</v>
+        <v>-0.0004</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.013</v>
+        <v>-0.0012</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.0011</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="72">
@@ -3477,10 +3477,10 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3559,28 +3559,28 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0128</v>
+        <v>0.0116</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -3723,28 +3723,28 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="n">
-        <v>0.0138</v>
+        <v>0.0134</v>
       </c>
       <c r="K79" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0127</v>
+        <v>0.0115</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.001</v>
+        <v>-0.0009</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="R79" t="n">
         <v>-0.0004</v>
@@ -3808,28 +3808,28 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-0.0438</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>-0.0309</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>0.0157</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="82">
@@ -3887,31 +3887,31 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="84">
@@ -3969,16 +3969,16 @@
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0262</v>
+        <v>0.1475</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -4051,31 +4051,31 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>0.2132</v>
+        <v>-0.1912</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0283</v>
+        <v>-0.1418</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0355</v>
+        <v>-0.1199</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0164</v>
+        <v>-0.1945</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.0203</v>
+        <v>-0.0679</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.0128</v>
+        <v>-0.0365</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.0057</v>
+        <v>-0.034</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0015</v>
+        <v>0.0234</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0149</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="88">
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -4133,31 +4133,31 @@
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>36.2417</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>36.6939</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>37.1278</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>37.5252</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>37.8698</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>38.2108</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>38.5444</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>38.8755</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>39.2221</v>
       </c>
     </row>
     <row r="90">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>-0.015</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -4215,25 +4215,25 @@
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -4464,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.1382</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -4543,10 +4543,10 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="n">
-        <v>0.1943</v>
+        <v>-0.0005</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.0003</v>
+        <v>-0.0007</v>
       </c>
       <c r="L99" t="n">
         <v>-0.0004</v>
@@ -4555,19 +4555,19 @@
         <v>-0.0005</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.0006</v>
+        <v>-0.0005</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.0006</v>
+        <v>-0.0008</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.0006</v>
+        <v>-0.0009</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.0006</v>
+        <v>-0.0004</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.0005</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="100">
@@ -4628,7 +4628,7 @@
         <v>0.0054</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0052</v>
+        <v>0.0053</v>
       </c>
       <c r="L101" t="n">
         <v>0.0051</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>-0.0336</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
@@ -4707,31 +4707,31 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="n">
-        <v>-0.0351</v>
+        <v>-0.0452</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.0363</v>
+        <v>-0.0517</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.0376</v>
+        <v>-0.0581</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.0419</v>
+        <v>-0.0415</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.0073</v>
+        <v>-0.0281</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.0048</v>
+        <v>-0.0196</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0024</v>
+        <v>-0.0112</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0029</v>
+        <v>0.0055</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0026</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="104">
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>-0.0589</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -4789,28 +4789,28 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="n">
-        <v>-0.0595</v>
+        <v>-0.058</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.0587</v>
+        <v>-0.0287</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.0292</v>
+        <v>-0.0285</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.0289</v>
+        <v>-0.0281</v>
       </c>
       <c r="N105" t="n">
-        <v>-0.0286</v>
+        <v>-0.0279</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.0283</v>
+        <v>-0.0276</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.028</v>
+        <v>-0.0273</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.0278</v>
+        <v>-0.0002</v>
       </c>
       <c r="R105" t="n">
         <v>-0.0002</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -4953,31 +4953,31 @@
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="n">
-        <v>22.2396</v>
+        <v>0.2396</v>
       </c>
       <c r="K109" t="n">
-        <v>22.5845</v>
+        <v>0.2433</v>
       </c>
       <c r="L109" t="n">
-        <v>22.9347</v>
+        <v>0.2471</v>
       </c>
       <c r="M109" t="n">
-        <v>23.2903</v>
+        <v>0.2509</v>
       </c>
       <c r="N109" t="n">
-        <v>23.6515</v>
+        <v>0.2548</v>
       </c>
       <c r="O109" t="n">
-        <v>24.0183</v>
+        <v>0.2588</v>
       </c>
       <c r="P109" t="n">
-        <v>24.3907</v>
+        <v>0.2628</v>
       </c>
       <c r="Q109" t="n">
-        <v>24.769</v>
+        <v>0.2669</v>
       </c>
       <c r="R109" t="n">
-        <v>25.1531</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="110">
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -5117,16 +5117,16 @@
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="n">
-        <v>-0.0003</v>
+        <v>-0.0002</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.0003</v>
+        <v>-0.0002</v>
       </c>
       <c r="L113" t="n">
         <v>-0.0002</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="N113" t="n">
         <v>-0.0001</v>
@@ -5138,7 +5138,7 @@
         <v>-0.0001</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
